--- a/biology/Botanique/Félix_de_Saint_Martin_de_la_Motte/Félix_de_Saint_Martin_de_la_Motte.xlsx
+++ b/biology/Botanique/Félix_de_Saint_Martin_de_la_Motte/Félix_de_Saint_Martin_de_la_Motte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_de_Saint_Martin_de_la_Motte</t>
+          <t>Félix_de_Saint_Martin_de_la_Motte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean François Félix de Saint Martin de la Motte, dit Saint Martin Delamotte, comte, né à Turin le 8 février 1762, mort à Turin le 10 novembre 1818, est un savant italien et homme politique français sous le Premier Empire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_de_Saint_Martin_de_la_Motte</t>
+          <t>Félix_de_Saint_Martin_de_la_Motte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 8 février 1762 dans le Piémont à Turin, dans une famille distinguée, Félix de Saint Martin de la Motte est reçu docteur en droit et membre du collège de droit de l'université de Turin. Il devient également membre de l'Académie des sciences et s'occupe beaucoup de littérature et de botanique.
 Il consigne le fruit de ses recherches dans la Bibliotheca ultramontana (tome XII, P.260), sous le titre de Osserviazioni botaniche, où il relevait quelques inexactitudes de la Topographie médicale de Chambéry par le docteur Daquin. Celui-ci y répondit par une Défense de la Topographie médicale de Chambéry et par une Réponse à la lettre du comte Félix de Saint-Martin, Chamébry, 1788
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_de_Saint_Martin_de_la_Motte</t>
+          <t>Félix_de_Saint_Martin_de_la_Motte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Saint-Martin de la Motte (le comte Félix de) », dans Louis-Gabriel Michaud, Biographie universelle ancienne et moderne : histoire par ordre alphabétique de la vie publique et privée de tous les hommes avec la collaboration de plus de 300 savants et littérateurs français ou étrangers, 2e édition, 1843-1865 [détail de l’édition]
 « Félix de Saint Martin de la Motte », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]</t>
